--- a/biology/Zoologie/Chitrella/Chitrella.xlsx
+++ b/biology/Zoologie/Chitrella/Chitrella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chitrella est un genre de pseudoscorpions de la famille des Syarinidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre sont endémiques des États-Unis[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre sont endémiques des États-Unis.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Pseudoscorpions of the World (version 3.0)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Pseudoscorpions of the World (version 3.0) :
 Chitrella archeri Malcolm &amp; Chamberlin, 1960
 Chitrella cala (Chamberlin, 1930)
 Chitrella cavicola (Packard, 1884)
@@ -582,7 +598,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Beier, 1932 : Pseudoscorpionidea I. Subord. Chthoniinea et Neobisiinea. Tierreich, vol. 57, p. 1-258 (de).
 Chamberlin, 1930 : A synoptic classification of the false scorpions or chela-spinners, with a report on a cosmopolitan collection of the same. Part II. The Diplosphyronida (Arachnida-Chelonethida). Annals and Magazine of Natural History, sér. 10, vol. 5, p. 1-48 &amp; 585-620 (en).</t>
